--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-021 Indice Contratos.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-021 Indice Contratos.xlsx
@@ -903,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1115,9 +1115,8 @@
     </xf>
     <xf borderId="27" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1174,7 +1173,7 @@
     <xdr:ext cx="504825" cy="619125"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1202,7 +1201,7 @@
     <xdr:ext cx="657225" cy="657225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1910,34 +1909,34 @@
       <c r="J42" s="106"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="B43" s="32"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="41"/>
-    </row>
-    <row r="44" ht="12.0" customHeight="1">
-      <c r="B44" s="21" t="s">
+      <c r="B43" s="107"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
+    </row>
+    <row r="44" ht="12.0" hidden="1" customHeight="1">
+      <c r="B44" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="22" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22" t="s">
+      <c r="F44" s="28"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="107"/>
-    </row>
-    <row r="45" ht="12.0" customHeight="1">
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" ht="12.0" hidden="1" customHeight="1">
       <c r="B45" s="108"/>
       <c r="C45" s="28"/>
       <c r="D45" s="41"/>
@@ -1948,8 +1947,8 @@
       <c r="I45" s="28"/>
       <c r="J45" s="41"/>
     </row>
-    <row r="46" ht="12.0" customHeight="1">
-      <c r="B46" s="109"/>
+    <row r="46" ht="12.0" hidden="1" customHeight="1">
+      <c r="B46" s="107"/>
       <c r="C46" s="102"/>
       <c r="D46" s="103"/>
       <c r="E46" s="102"/>
@@ -1959,65 +1958,65 @@
       <c r="I46" s="102"/>
       <c r="J46" s="103"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="B47" s="110" t="s">
+    <row r="47" ht="12.75" hidden="1" customHeight="1">
+      <c r="B47" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="113" t="s">
+      <c r="C47" s="110"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="112" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="47"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="115" t="s">
+      <c r="G47" s="113"/>
+      <c r="H47" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="116"/>
-      <c r="J47" s="117"/>
-    </row>
-    <row r="48" ht="12.0" customHeight="1">
-      <c r="B48" s="118" t="s">
+      <c r="I47" s="115"/>
+      <c r="J47" s="116"/>
+    </row>
+    <row r="48" ht="12.0" hidden="1" customHeight="1">
+      <c r="B48" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="119" t="s">
+      <c r="C48" s="118" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="26"/>
-      <c r="E48" s="118" t="s">
+      <c r="E48" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="119" t="s">
+      <c r="F48" s="118" t="s">
         <v>66</v>
       </c>
       <c r="G48" s="26"/>
-      <c r="H48" s="120" t="s">
+      <c r="H48" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="119" t="s">
+      <c r="I48" s="118" t="s">
         <v>68</v>
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="B49" s="121" t="s">
+    <row r="49" ht="12.75" hidden="1" customHeight="1">
+      <c r="B49" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="121" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="123" t="s">
+      <c r="E49" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="122" t="s">
+      <c r="F49" s="121" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="17"/>
-      <c r="H49" s="123" t="s">
+      <c r="H49" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="I49" s="122" t="s">
+      <c r="I49" s="121" t="s">
         <v>74</v>
       </c>
       <c r="J49" s="17"/>
@@ -2982,30 +2981,30 @@
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G31:J31"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C31:E31"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>